--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>CardName_1002</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Ability_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf_alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +575,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -576,8 +588,8 @@
     <col min="6" max="6" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="8.796875" style="1"/>
     <col min="14" max="14" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.796875" style="1"/>
-    <col min="17" max="18" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" style="1"/>
+    <col min="16" max="18" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="8.796875" style="1"/>
@@ -688,7 +700,9 @@
       <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -733,7 +747,9 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -782,7 +798,9 @@
       <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>

--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>CardName_1002</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>CardDesc_1001</t>
-  </si>
-  <si>
-    <t>Creature</t>
   </si>
   <si>
     <t>Level</t>
@@ -120,15 +117,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bull</t>
+    <t>Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hound</t>
+    <t>Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wolf_alpha</t>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crotch_Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>witch_female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_02_Croll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,44 +584,45 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="8.796875" style="1"/>
-    <col min="14" max="14" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" style="1"/>
-    <col min="16" max="18" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="1"/>
+    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="8.75" style="1"/>
+    <col min="14" max="14" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.399999999999999">
+    <row r="1" spans="1:21" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -630,42 +640,42 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" ht="17.399999999999999">
+    <row r="2" spans="1:21" ht="16.5">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -674,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3">
         <v>11001</v>
@@ -701,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -709,12 +719,12 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="17.399999999999999">
+    <row r="3" spans="1:21" ht="16.5">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -723,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3">
         <v>11002</v>
@@ -748,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -756,12 +766,12 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="17.399999999999999">
+    <row r="4" spans="1:21" ht="16.5">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -770,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3">
         <v>11003</v>
@@ -799,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>

--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -584,7 +584,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="2" spans="1:21" ht="16.5">
       <c r="A2" s="3">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="3" spans="1:21" ht="16.5">
       <c r="A3" s="3">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="4" spans="1:21" ht="16.5">
       <c r="A4" s="3">
-        <v>1003</v>
+        <v>2003</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>

--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>CardName_1002</t>
   </si>
@@ -138,6 +138,13 @@
   </si>
   <si>
     <t>Character_02_Croll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardShortDesc_Id</t>
+  </si>
+  <si>
+    <t>MobShortDesc_1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -593,19 +600,20 @@
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="8.75" style="1"/>
-    <col min="14" max="14" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1"/>
-    <col min="16" max="16" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.75" style="1"/>
+    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="8.75" style="1"/>
+    <col min="15" max="15" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" style="1"/>
+    <col min="17" max="17" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -619,60 +627,63 @@
         <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="3">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -684,44 +695,47 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>11001</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>3</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="16.5">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="3">
-        <v>2002</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
@@ -732,43 +746,44 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>11002</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="16.5">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="3">
-        <v>2003</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
@@ -779,43 +794,44 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>11003</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>50</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
       <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
         <v>6</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A54CD-3D3B-4FBF-8971-085795CC8E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="38070" windowHeight="19365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>CardName_1002</t>
-  </si>
-  <si>
-    <t>CardName_1003</t>
-  </si>
-  <si>
-    <t>CardDesc_1002</t>
-  </si>
-  <si>
-    <t>CardDesc_1003</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -59,12 +48,6 @@
     <t>Def</t>
   </si>
   <si>
-    <t>CardName_1001</t>
-  </si>
-  <si>
-    <t>CardDesc_1001</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -144,14 +127,42 @@
     <t>CardShortDesc_Id</t>
   </si>
   <si>
-    <t>MobShortDesc_1001</t>
+    <t>MobShortDesc_901001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDesc_901002</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901002</t>
+  </si>
+  <si>
+    <t>CardDesc_901003</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901003</t>
+  </si>
+  <si>
+    <t>CardName_901002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_901003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobName_901001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobDesc_901001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -234,7 +245,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,20 +598,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="1"/>
     <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="8.75" style="1"/>
@@ -615,90 +626,90 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="3">
-        <v>1001</v>
+        <v>901001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3">
         <v>11001</v>
@@ -725,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -735,20 +746,22 @@
     </row>
     <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="3">
-        <v>1002</v>
+        <v>901002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3">
         <v>11002</v>
@@ -773,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -783,20 +796,22 @@
     </row>
     <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="3">
-        <v>1003</v>
+        <v>901003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3">
         <v>11003</v>
@@ -825,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>

--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A54CD-3D3B-4FBF-8971-085795CC8E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1365" windowWidth="38070" windowHeight="19365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -100,69 +99,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CardShortDesc_Id</t>
+  </si>
+  <si>
+    <t>CardDesc_901002</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901002</t>
+  </si>
+  <si>
+    <t>CardDesc_901003</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901003</t>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobName_901001</t>
+  </si>
+  <si>
+    <t>MobDesc_901001</t>
+  </si>
+  <si>
+    <t>MobShortDesc_901001</t>
+  </si>
+  <si>
     <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_901002</t>
+  </si>
+  <si>
+    <t>CardName_901003</t>
   </si>
   <si>
     <t>Crotch_Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>witch_female</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Character_02_Croll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardShortDesc_Id</t>
-  </si>
-  <si>
-    <t>MobShortDesc_901001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardDesc_901002</t>
-  </si>
-  <si>
-    <t>MobShortDesc_901002</t>
-  </si>
-  <si>
-    <t>CardDesc_901003</t>
-  </si>
-  <si>
-    <t>MobShortDesc_901003</t>
-  </si>
-  <si>
-    <t>CardName_901002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName_901003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MobName_901001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MobDesc_901001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -598,33 +584,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="8.75" style="1"/>
-    <col min="15" max="15" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="1"/>
-    <col min="17" max="17" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.75" style="1"/>
+    <col min="6" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:23" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -638,61 +624,64 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
+    <row r="2" spans="1:23" ht="16.5">
       <c r="A2" s="3">
         <v>901001</v>
       </c>
@@ -700,51 +689,52 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>11001</v>
       </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>5</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>3</v>
       </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="3"/>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:23" ht="16.5">
       <c r="A3" s="3">
         <v>901002</v>
       </c>
@@ -752,49 +742,50 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>11002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>4</v>
       </c>
-      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:23" ht="16.5">
       <c r="A4" s="3">
         <v>901003</v>
       </c>
@@ -802,51 +793,52 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>11003</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>50</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
       <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
         <v>6</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2076F0B-A611-46F2-874B-82438EB7B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1365" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -148,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -584,14 +585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
@@ -709,7 +710,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3">
         <v>3</v>
@@ -762,7 +763,7 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3" s="3">
         <v>4</v>

--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2076F0B-A611-46F2-874B-82438EB7B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41F24A-93FC-4FD3-88B3-955F132F2C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>CardDesc_Id</t>
   </si>
   <si>
-    <t>AiGroup_id</t>
-  </si>
-  <si>
     <t>Extinction</t>
   </si>
   <si>
@@ -144,6 +141,10 @@
   </si>
   <si>
     <t>Character_02_Croll</t>
+  </si>
+  <si>
+    <t>AiGroup_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -589,29 +590,29 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.75" style="1"/>
-    <col min="16" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.75" style="1"/>
-    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.69921875" style="1"/>
+    <col min="16" max="16" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.69921875" style="1"/>
+    <col min="18" max="18" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5">
+    <row r="1" spans="1:23" ht="17.399999999999999">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -625,16 +626,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -652,13 +653,13 @@
         <v>6</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>7</v>
@@ -682,24 +683,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5">
+    <row r="2" spans="1:23" ht="17.399999999999999">
       <c r="A2" s="3">
         <v>901001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
@@ -727,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -735,24 +736,24 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="16.5">
+    <row r="3" spans="1:23" ht="17.399999999999999">
       <c r="A3" s="3">
         <v>901002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3">
@@ -778,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -786,24 +787,24 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5">
+    <row r="4" spans="1:23" ht="17.399999999999999">
       <c r="A4" s="3">
         <v>901003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
@@ -833,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>

--- a/Assets/ERang/Excels/MonsterCardData.xlsx
+++ b/Assets/ERang/Excels/MonsterCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41F24A-93FC-4FD3-88B3-955F132F2C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3B2361-4391-4870-ACF9-7427D8ADF215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -116,15 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MobName_901001</t>
-  </si>
-  <si>
-    <t>MobDesc_901001</t>
-  </si>
-  <si>
-    <t>MobShortDesc_901001</t>
-  </si>
-  <si>
     <t>Monster</t>
   </si>
   <si>
@@ -145,13 +136,22 @@
   <si>
     <t>AiGroup_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName_1001</t>
+  </si>
+  <si>
+    <t>CardDesc_1001</t>
+  </si>
+  <si>
+    <t>CardShortDesc_1001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -178,6 +178,14 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -227,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,6 +245,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,26 +604,26 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.69921875" style="1"/>
-    <col min="8" max="8" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.69921875" style="1"/>
-    <col min="16" max="16" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.69921875" style="1"/>
-    <col min="18" max="18" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.399999999999999">
+    <row r="1" spans="1:23" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -635,7 +646,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -683,24 +694,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.399999999999999">
+    <row r="2" spans="1:23" ht="16.5">
       <c r="A2" s="3">
         <v>901001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
@@ -728,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -736,7 +747,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="17.399999999999999">
+    <row r="3" spans="1:23" ht="16.5">
       <c r="A3" s="3">
         <v>901002</v>
       </c>
@@ -744,7 +755,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -753,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3">
@@ -779,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -787,7 +798,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" ht="17.399999999999999">
+    <row r="4" spans="1:23" ht="16.5">
       <c r="A4" s="3">
         <v>901003</v>
       </c>
@@ -795,7 +806,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
@@ -804,7 +815,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
@@ -834,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
